--- a/src/pom/ExcelData/ELC/Probation.xlsx
+++ b/src/pom/ExcelData/ELC/Probation.xlsx
@@ -10,7 +10,7 @@
     <sheet name="ProbationRequestReviewStatus" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -119,7 +119,7 @@
     <t>Employee Name</t>
   </si>
   <si>
-    <t>Mehta Nayan</t>
+    <t>ritesh pandey</t>
   </si>
   <si>
     <t>Excellent</t>
@@ -161,8 +161,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="3">
@@ -602,7 +602,7 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
